--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_ICEg.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_ICEg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/passenger data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E65BF87-DB09-534C-B3CD-89CC09C0C622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756EC760-1910-9141-AE91-75B89737A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="89">
   <si>
     <t>Name:</t>
   </si>
@@ -179,18 +179,6 @@
     <t>vkm/h</t>
   </si>
   <si>
-    <t>Speed limit built area</t>
-  </si>
-  <si>
-    <t>Speed limit expressway</t>
-  </si>
-  <si>
-    <t>Swiss confederation</t>
-  </si>
-  <si>
-    <t>https://www.ch.ch/en/vehicles-and-traffic/how-to-behave-in-road-traffic/traffic-regulations/driving-over-the-speed-limit/</t>
-  </si>
-  <si>
     <t>Mvkm/unit</t>
   </si>
   <si>
@@ -304,6 +292,15 @@
   <si>
     <t>CHE_convpass_ICEg.xlsx</t>
   </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
+  </si>
 </sst>
 </file>
 
@@ -406,24 +403,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -765,7 +752,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -786,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -795,7 +782,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY()</f>
-        <v>45029</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -849,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -871,7 +858,7 @@
         <v>conv_pass_ICEg</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -900,7 +887,7 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -923,7 +910,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -946,7 +933,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -975,11 +962,11 @@
         <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1001,16 +988,16 @@
         <v>1.1307368766878999E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1060,22 +1047,22 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>38.1</v>
       </c>
       <c r="H14" t="s">
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1094,23 +1081,18 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
         <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
@@ -1134,14 +1116,14 @@
         <v>36646.018208507507</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1166,14 +1148,14 @@
         <v>37573.283010783525</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1198,14 +1180,14 @@
         <v>37073.757434776533</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1230,14 +1212,14 @@
         <v>36264.284378681572</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1262,14 +1244,14 @@
         <v>34449.157986076709</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1294,14 +1276,14 @@
         <v>35315.281407408067</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1326,14 +1308,14 @@
         <v>36147.739058169303</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1358,14 +1340,14 @@
         <v>36865.239436119533</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1390,14 +1372,14 @@
         <v>37595.789429508266</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1422,14 +1404,14 @@
         <v>38383.403662765486</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1454,14 +1436,14 @@
         <v>39179.201680993865</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1486,14 +1468,14 @@
         <v>39357.70929591696</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1518,14 +1500,14 @@
         <v>39597.336209581706</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1550,14 +1532,14 @@
         <v>39577.457164961364</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1582,14 +1564,14 @@
         <v>39410.523751585722</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1614,14 +1596,14 @@
         <v>38891.871726968275</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1646,14 +1628,14 @@
         <v>38538.129481567361</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1678,14 +1660,14 @@
         <v>38022.817525914725</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1710,14 +1692,14 @@
         <v>37796.019029742114</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1742,14 +1724,14 @@
         <v>37807.285590952073</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1774,14 +1756,14 @@
         <v>37523.986086837991</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1806,14 +1788,14 @@
         <v>36854.338578252704</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1838,14 +1820,14 @@
         <v>36298.90278965998</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1870,14 +1852,14 @@
         <v>35694.457782807702</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1902,14 +1884,14 @@
         <v>35217.578511779931</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1934,14 +1916,14 @@
         <v>34743.213930459307</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1966,14 +1948,14 @@
         <v>34530.767914815646</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1998,14 +1980,14 @@
         <v>34389.685325667742</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2030,14 +2012,14 @@
         <v>34210.188724460022</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2062,14 +2044,14 @@
         <v>33995.913647141591</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2094,14 +2076,14 @@
         <v>30982.621126554372</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2126,14 +2108,14 @@
         <v>31822.812958809664</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2161,10 +2143,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2192,10 +2174,10 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2223,10 +2205,10 @@
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2254,10 +2236,10 @@
         <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2285,10 +2267,10 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2316,10 +2298,10 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2347,10 +2329,10 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2378,10 +2360,10 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2409,10 +2391,10 @@
         <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2440,10 +2422,10 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2471,10 +2453,10 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2502,10 +2484,10 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2533,10 +2515,10 @@
         <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2564,10 +2546,10 @@
         <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2595,10 +2577,10 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2626,13 +2608,13 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2660,13 +2642,13 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L64" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2694,13 +2676,13 @@
         <v>43</v>
       </c>
       <c r="J65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2728,13 +2710,13 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2762,13 +2744,13 @@
         <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2796,13 +2778,13 @@
         <v>43</v>
       </c>
       <c r="J68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L68" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2830,13 +2812,13 @@
         <v>43</v>
       </c>
       <c r="J69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L69" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2864,13 +2846,13 @@
         <v>43</v>
       </c>
       <c r="J70" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L70" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2898,13 +2880,13 @@
         <v>43</v>
       </c>
       <c r="J71" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2932,13 +2914,13 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L72" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2966,13 +2948,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L73" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3000,13 +2982,13 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3034,13 +3016,13 @@
         <v>43</v>
       </c>
       <c r="J75" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L75" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3068,13 +3050,13 @@
         <v>43</v>
       </c>
       <c r="J76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L76" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3102,13 +3084,13 @@
         <v>43</v>
       </c>
       <c r="J77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L77" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3136,13 +3118,13 @@
         <v>43</v>
       </c>
       <c r="J78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L78" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3170,13 +3152,13 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L79" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3224,11 +3206,11 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3256,11 +3238,11 @@
         <v>43</v>
       </c>
       <c r="J82" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3288,11 +3270,11 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3320,11 +3302,11 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3352,11 +3334,11 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3384,11 +3366,11 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3416,11 +3398,11 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3448,11 +3430,11 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3480,11 +3462,11 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3512,11 +3494,11 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3544,11 +3526,11 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3576,11 +3558,11 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3608,11 +3590,11 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3640,11 +3622,11 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3672,13 +3654,13 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L95" t="s">
         <v>68</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L95" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3706,13 +3688,13 @@
         <v>43</v>
       </c>
       <c r="J96" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L96" t="s">
         <v>68</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L96" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3740,13 +3722,13 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L97" t="s">
         <v>68</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L97" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3774,13 +3756,13 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L98" t="s">
         <v>68</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L98" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3808,13 +3790,13 @@
         <v>43</v>
       </c>
       <c r="J99" t="s">
+        <v>64</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L99" t="s">
         <v>68</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L99" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3842,13 +3824,13 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L100" t="s">
         <v>68</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L100" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3876,13 +3858,13 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L101" t="s">
         <v>68</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L101" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3910,13 +3892,13 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L102" t="s">
         <v>68</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L102" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3944,13 +3926,13 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
+        <v>64</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L103" t="s">
         <v>68</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L103" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3978,13 +3960,13 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
+        <v>64</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L104" t="s">
         <v>68</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L104" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4012,13 +3994,13 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
+        <v>64</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L105" t="s">
         <v>68</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L105" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4046,13 +4028,13 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
+        <v>64</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L106" t="s">
         <v>68</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L106" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4080,13 +4062,13 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
+        <v>64</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L107" t="s">
         <v>68</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L107" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4114,13 +4096,13 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L108" t="s">
         <v>68</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L108" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4148,13 +4130,13 @@
         <v>43</v>
       </c>
       <c r="J109" t="s">
+        <v>64</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L109" t="s">
         <v>68</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L109" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4182,13 +4164,13 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
+        <v>64</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L110" t="s">
         <v>68</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L110" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4216,13 +4198,13 @@
         <v>43</v>
       </c>
       <c r="J111" t="s">
+        <v>64</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L111" t="s">
         <v>68</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L111" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4269,10 +4251,10 @@
         <v>43</v>
       </c>
       <c r="J113" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L113" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4300,10 +4282,10 @@
         <v>43</v>
       </c>
       <c r="J114" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L114" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4331,10 +4313,10 @@
         <v>43</v>
       </c>
       <c r="J115" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L115" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4362,10 +4344,10 @@
         <v>43</v>
       </c>
       <c r="J116" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L116" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4393,10 +4375,10 @@
         <v>43</v>
       </c>
       <c r="J117" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L117" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4424,10 +4406,10 @@
         <v>43</v>
       </c>
       <c r="J118" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L118" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4455,10 +4437,10 @@
         <v>43</v>
       </c>
       <c r="J119" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L119" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4486,10 +4468,10 @@
         <v>43</v>
       </c>
       <c r="J120" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L120" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4517,10 +4499,10 @@
         <v>43</v>
       </c>
       <c r="J121" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L121" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4548,10 +4530,10 @@
         <v>43</v>
       </c>
       <c r="J122" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L122" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4579,10 +4561,10 @@
         <v>43</v>
       </c>
       <c r="J123" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L123" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4610,10 +4592,10 @@
         <v>43</v>
       </c>
       <c r="J124" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L124" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4641,10 +4623,10 @@
         <v>43</v>
       </c>
       <c r="J125" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L125" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4672,10 +4654,10 @@
         <v>43</v>
       </c>
       <c r="J126" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L126" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4703,10 +4685,10 @@
         <v>43</v>
       </c>
       <c r="J127" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L127" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4734,10 +4716,10 @@
         <v>43</v>
       </c>
       <c r="J128" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L128" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4765,10 +4747,10 @@
         <v>43</v>
       </c>
       <c r="J129" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L129" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4796,10 +4778,10 @@
         <v>43</v>
       </c>
       <c r="J130" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L130" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4827,10 +4809,10 @@
         <v>43</v>
       </c>
       <c r="J131" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L131" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4858,10 +4840,10 @@
         <v>43</v>
       </c>
       <c r="J132" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L132" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4889,10 +4871,10 @@
         <v>43</v>
       </c>
       <c r="J133" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L133" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4920,10 +4902,10 @@
         <v>43</v>
       </c>
       <c r="J134" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L134" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4951,10 +4933,10 @@
         <v>43</v>
       </c>
       <c r="J135" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L135" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -4982,10 +4964,10 @@
         <v>43</v>
       </c>
       <c r="J136" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L136" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5013,10 +4995,10 @@
         <v>43</v>
       </c>
       <c r="J137" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L137" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5044,10 +5026,10 @@
         <v>43</v>
       </c>
       <c r="J138" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L138" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5075,10 +5057,10 @@
         <v>43</v>
       </c>
       <c r="J139" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L139" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5106,10 +5088,10 @@
         <v>43</v>
       </c>
       <c r="J140" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L140" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5137,10 +5119,10 @@
         <v>43</v>
       </c>
       <c r="J141" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L141" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5168,10 +5150,10 @@
         <v>43</v>
       </c>
       <c r="J142" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L142" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5199,10 +5181,10 @@
         <v>43</v>
       </c>
       <c r="J143" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L143" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5227,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L144" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -6417,11 +6399,11 @@
         <v>28000</v>
       </c>
       <c r="H206" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K206" s="2"/>
       <c r="L206" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -7036,16 +7018,16 @@
         <v>72300</v>
       </c>
       <c r="H238" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J238" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K238" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L238" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -7113,7 +7095,7 @@
         <v>units</v>
       </c>
       <c r="L241" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -7143,7 +7125,7 @@
         <v>units</v>
       </c>
       <c r="L242" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -7173,7 +7155,7 @@
         <v>units</v>
       </c>
       <c r="L243" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -7203,7 +7185,7 @@
         <v>units</v>
       </c>
       <c r="L244" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -7233,7 +7215,7 @@
         <v>units</v>
       </c>
       <c r="L245" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -7263,7 +7245,7 @@
         <v>units</v>
       </c>
       <c r="L246" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -7293,7 +7275,7 @@
         <v>units</v>
       </c>
       <c r="L247" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -7323,7 +7305,7 @@
         <v>units</v>
       </c>
       <c r="L248" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -7353,7 +7335,7 @@
         <v>units</v>
       </c>
       <c r="L249" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -7383,7 +7365,7 @@
         <v>units</v>
       </c>
       <c r="L250" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -7413,7 +7395,7 @@
         <v>units</v>
       </c>
       <c r="L251" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -7443,7 +7425,7 @@
         <v>units</v>
       </c>
       <c r="L252" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -7473,7 +7455,7 @@
         <v>units</v>
       </c>
       <c r="L253" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -7503,7 +7485,7 @@
         <v>units</v>
       </c>
       <c r="L254" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -7533,7 +7515,7 @@
         <v>units</v>
       </c>
       <c r="L255" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -7563,7 +7545,7 @@
         <v>units</v>
       </c>
       <c r="L256" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -7593,7 +7575,7 @@
         <v>units</v>
       </c>
       <c r="L257" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7623,7 +7605,7 @@
         <v>units</v>
       </c>
       <c r="L258" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7653,7 +7635,7 @@
         <v>units</v>
       </c>
       <c r="L259" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7683,7 +7665,7 @@
         <v>units</v>
       </c>
       <c r="L260" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7713,7 +7695,7 @@
         <v>units</v>
       </c>
       <c r="L261" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7743,7 +7725,7 @@
         <v>units</v>
       </c>
       <c r="L262" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7773,7 +7755,7 @@
         <v>units</v>
       </c>
       <c r="L263" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7803,7 +7785,7 @@
         <v>units</v>
       </c>
       <c r="L264" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7833,7 +7815,7 @@
         <v>units</v>
       </c>
       <c r="L265" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -7863,7 +7845,7 @@
         <v>units</v>
       </c>
       <c r="L266" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -7893,7 +7875,7 @@
         <v>units</v>
       </c>
       <c r="L267" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -7923,7 +7905,7 @@
         <v>units</v>
       </c>
       <c r="L268" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -7953,7 +7935,7 @@
         <v>units</v>
       </c>
       <c r="L269" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -7983,7 +7965,7 @@
         <v>units</v>
       </c>
       <c r="L270" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -8013,7 +7995,7 @@
         <v>units</v>
       </c>
       <c r="L271" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -8039,7 +8021,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -8065,7 +8047,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -8091,7 +8073,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -8117,7 +8099,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -8143,7 +8125,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -8169,7 +8151,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -8195,7 +8177,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -8221,7 +8203,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -8247,7 +8229,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -8273,7 +8255,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -8299,7 +8281,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -8325,7 +8307,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -8351,7 +8333,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -8376,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="L285" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -8401,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="L286" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -8426,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="L287" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -8451,7 +8433,7 @@
         <v>1</v>
       </c>
       <c r="L288" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -8476,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="L289" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -8501,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="L290" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -8526,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="L291" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -8551,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="L292" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -8576,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="L293" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -8601,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="L294" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -8626,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="L295" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -8651,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="L296" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -8676,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="L297" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -8701,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="L298" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -8726,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="L299" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -8751,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="L300" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -8776,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="L301" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -8801,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="L302" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -8826,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="L303" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -8851,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -8876,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -8901,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -8926,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -8951,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -8976,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -9001,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -9026,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -9051,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -9076,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -9101,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -9126,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -9151,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -9176,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -9201,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -9226,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -9251,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -9276,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -9301,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -9326,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -9351,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -9376,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -9401,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="L326" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -9426,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="L327" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -9451,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="L328" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -9476,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="L329" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -9501,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L330" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -9526,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -9551,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -9576,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="L333" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -9601,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -9626,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="L335" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -9793,16 +9775,16 @@
         <v>1.3003901170351104E-5</v>
       </c>
       <c r="H342" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J342" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K342" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L342" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
@@ -9831,16 +9813,16 @@
         <v>1.295336787564767E-5</v>
       </c>
       <c r="H343" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J343" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L343" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
@@ -9869,16 +9851,16 @@
         <v>1.349527665317139E-5</v>
       </c>
       <c r="H344" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J344" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L344" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
@@ -9907,16 +9889,16 @@
         <v>1.36986301369863E-5</v>
       </c>
       <c r="H345" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J345" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L345" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
@@ -9945,16 +9927,16 @@
         <v>1.4880952380952381E-5</v>
       </c>
       <c r="H346" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J346" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L346" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
@@ -9983,16 +9965,16 @@
         <v>1.4992503748125937E-5</v>
       </c>
       <c r="H347" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J347" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L347" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
@@ -10021,16 +10003,16 @@
         <v>1.4880952380952381E-5</v>
       </c>
       <c r="H348" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J348" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L348" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
@@ -10059,16 +10041,16 @@
         <v>1.4836795252225518E-5</v>
       </c>
       <c r="H349" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J349" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L349" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -10097,16 +10079,16 @@
         <v>1.4992503748125937E-5</v>
       </c>
       <c r="H350" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J350" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L350" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -10135,16 +10117,16 @@
         <v>1.5082956259426846E-5</v>
       </c>
       <c r="H351" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J351" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L351" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
@@ -10173,16 +10155,16 @@
         <v>1.4727540500736378E-5</v>
       </c>
       <c r="H352" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J352" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L352" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -10211,16 +10193,16 @@
         <v>1.4684287812041117E-5</v>
       </c>
       <c r="H353" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J353" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L353" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -10249,16 +10231,16 @@
         <v>1.5037593984962406E-5</v>
       </c>
       <c r="H354" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J354" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L354" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -10287,16 +10269,16 @@
         <v>1.5432098765432099E-5</v>
       </c>
       <c r="H355" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J355" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L355" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -10325,16 +10307,16 @@
         <v>1.6103059581320449E-5</v>
       </c>
       <c r="H356" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J356" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L356" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -10363,16 +10345,16 @@
         <v>1.6666666666666664E-5</v>
       </c>
       <c r="H357" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J357" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L357" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -10401,16 +10383,16 @@
         <v>1.7152658662092625E-5</v>
       </c>
       <c r="H358" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J358" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L358" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -10439,16 +10421,16 @@
         <v>1.7667844522968198E-5</v>
       </c>
       <c r="H359" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J359" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L359" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -10477,16 +10459,16 @@
         <v>1.8018018018018019E-5</v>
       </c>
       <c r="H360" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J360" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L360" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -10515,16 +10497,16 @@
         <v>1.8796992481203007E-5</v>
       </c>
       <c r="H361" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J361" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L361" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -10553,16 +10535,16 @@
         <v>1.9267822736030827E-5</v>
       </c>
       <c r="H362" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J362" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L362" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -10591,16 +10573,16 @@
         <v>1.9011406844106464E-5</v>
       </c>
       <c r="H363" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J363" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L363" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -10629,16 +10611,16 @@
         <v>1.8416206261510128E-5</v>
       </c>
       <c r="H364" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J364" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L364" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -10667,16 +10649,16 @@
         <v>1.7636684303350968E-5</v>
       </c>
       <c r="H365" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J365" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L365" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -10705,16 +10687,16 @@
         <v>1.7921146953405018E-5</v>
       </c>
       <c r="H366" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J366" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L366" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
@@ -10743,16 +10725,16 @@
         <v>1.524390243902439E-5</v>
       </c>
       <c r="H367" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J367" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L367" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -10774,22 +10756,22 @@
         <v>1990</v>
       </c>
       <c r="F368" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G368">
         <v>1.6619623743333447</v>
       </c>
       <c r="H368" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J368" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K368" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L368" t="s">
         <v>58</v>
-      </c>
-      <c r="L368" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -10811,22 +10793,22 @@
         <v>1991</v>
       </c>
       <c r="F369" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G369">
         <v>1.6529349561812849</v>
       </c>
       <c r="H369" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J369" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K369" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L369" t="s">
         <v>58</v>
-      </c>
-      <c r="L369" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -10848,22 +10830,22 @@
         <v>1992</v>
       </c>
       <c r="F370" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G370">
         <v>1.6439015880381007</v>
       </c>
       <c r="H370" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J370" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K370" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L370" t="s">
         <v>58</v>
-      </c>
-      <c r="L370" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -10885,22 +10867,22 @@
         <v>1993</v>
       </c>
       <c r="F371" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G371">
         <v>1.6348977095326076</v>
       </c>
       <c r="H371" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J371" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K371" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L371" t="s">
         <v>58</v>
-      </c>
-      <c r="L371" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -10922,22 +10904,22 @@
         <v>1994</v>
       </c>
       <c r="F372" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G372">
         <v>1.6359409990814882</v>
       </c>
       <c r="H372" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J372" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K372" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L372" t="s">
         <v>58</v>
-      </c>
-      <c r="L372" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -10959,22 +10941,22 @@
         <v>1995</v>
       </c>
       <c r="F373" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G373">
         <v>1.627796211649325</v>
       </c>
       <c r="H373" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J373" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K373" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L373" t="s">
         <v>58</v>
-      </c>
-      <c r="L373" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -10996,22 +10978,22 @@
         <v>1996</v>
       </c>
       <c r="F374" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G374">
         <v>1.6201500029414151</v>
       </c>
       <c r="H374" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J374" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K374" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L374" t="s">
         <v>58</v>
-      </c>
-      <c r="L374" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -11033,22 +11015,22 @@
         <v>1997</v>
       </c>
       <c r="F375" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G375">
         <v>1.6129948320503564</v>
       </c>
       <c r="H375" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J375" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K375" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L375" t="s">
         <v>58</v>
-      </c>
-      <c r="L375" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -11070,22 +11052,22 @@
         <v>1998</v>
       </c>
       <c r="F376" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G376">
         <v>1.6062654456809142</v>
       </c>
       <c r="H376" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J376" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K376" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L376" t="s">
         <v>58</v>
-      </c>
-      <c r="L376" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -11107,22 +11089,22 @@
         <v>1999</v>
       </c>
       <c r="F377" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G377">
         <v>1.5998922064513665</v>
       </c>
       <c r="H377" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J377" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K377" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L377" t="s">
         <v>58</v>
-      </c>
-      <c r="L377" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -11144,22 +11126,22 @@
         <v>2000</v>
       </c>
       <c r="F378" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G378">
         <v>1.5938163690116243</v>
       </c>
       <c r="H378" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J378" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K378" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L378" t="s">
         <v>58</v>
-      </c>
-      <c r="L378" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -11181,22 +11163,22 @@
         <v>2001</v>
       </c>
       <c r="F379" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G379">
         <v>1.5906754879369145</v>
       </c>
       <c r="H379" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J379" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K379" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L379" t="s">
         <v>58</v>
-      </c>
-      <c r="L379" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -11218,22 +11200,22 @@
         <v>2002</v>
       </c>
       <c r="F380" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G380">
         <v>1.587189549799211</v>
       </c>
       <c r="H380" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J380" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K380" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L380" t="s">
         <v>58</v>
-      </c>
-      <c r="L380" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -11255,22 +11237,22 @@
         <v>2003</v>
       </c>
       <c r="F381" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G381">
         <v>1.5834524958984122</v>
       </c>
       <c r="H381" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J381" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K381" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L381" t="s">
         <v>58</v>
-      </c>
-      <c r="L381" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -11292,22 +11274,22 @@
         <v>2004</v>
       </c>
       <c r="F382" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G382">
         <v>1.5795519905141138</v>
       </c>
       <c r="H382" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J382" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K382" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L382" t="s">
         <v>58</v>
-      </c>
-      <c r="L382" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -11329,22 +11311,22 @@
         <v>2005</v>
       </c>
       <c r="F383" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G383">
         <v>1.5742273401858171</v>
       </c>
       <c r="H383" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J383" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K383" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L383" t="s">
         <v>58</v>
-      </c>
-      <c r="L383" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -11366,22 +11348,22 @@
         <v>2006</v>
       </c>
       <c r="F384" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G384">
         <v>1.5770757432902991</v>
       </c>
       <c r="H384" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J384" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K384" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L384" t="s">
         <v>58</v>
-      </c>
-      <c r="L384" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -11403,22 +11385,22 @@
         <v>2007</v>
       </c>
       <c r="F385" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G385">
         <v>1.5810502599514888</v>
       </c>
       <c r="H385" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J385" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K385" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L385" t="s">
         <v>58</v>
-      </c>
-      <c r="L385" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11440,22 +11422,22 @@
         <v>2008</v>
       </c>
       <c r="F386" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G386">
         <v>1.5868573677903355</v>
       </c>
       <c r="H386" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J386" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K386" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L386" t="s">
         <v>58</v>
-      </c>
-      <c r="L386" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11477,22 +11459,22 @@
         <v>2009</v>
       </c>
       <c r="F387" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G387">
         <v>1.5941421065031705</v>
       </c>
       <c r="H387" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J387" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K387" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L387" t="s">
         <v>58</v>
-      </c>
-      <c r="L387" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11514,22 +11496,22 @@
         <v>2010</v>
       </c>
       <c r="F388" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G388">
         <v>1.6027499464678339</v>
       </c>
       <c r="H388" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J388" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K388" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L388" t="s">
         <v>58</v>
-      </c>
-      <c r="L388" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11551,22 +11533,22 @@
         <v>2011</v>
       </c>
       <c r="F389" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G389">
         <v>1.5952803755147054</v>
       </c>
       <c r="H389" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J389" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K389" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L389" t="s">
         <v>58</v>
-      </c>
-      <c r="L389" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -11588,22 +11570,22 @@
         <v>2012</v>
       </c>
       <c r="F390" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G390">
         <v>1.5881061022973417</v>
       </c>
       <c r="H390" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J390" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K390" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L390" t="s">
         <v>58</v>
-      </c>
-      <c r="L390" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -11625,22 +11607,22 @@
         <v>2013</v>
       </c>
       <c r="F391" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G391">
         <v>1.580437033556165</v>
       </c>
       <c r="H391" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J391" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K391" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L391" t="s">
         <v>58</v>
-      </c>
-      <c r="L391" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -11662,22 +11644,22 @@
         <v>2014</v>
       </c>
       <c r="F392" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G392">
         <v>1.5720933219641362</v>
       </c>
       <c r="H392" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J392" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K392" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L392" t="s">
         <v>58</v>
-      </c>
-      <c r="L392" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11699,22 +11681,22 @@
         <v>2015</v>
       </c>
       <c r="F393" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G393">
         <v>1.5638595650126308</v>
       </c>
       <c r="H393" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J393" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K393" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L393" t="s">
         <v>58</v>
-      </c>
-      <c r="L393" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11736,22 +11718,22 @@
         <v>2016</v>
       </c>
       <c r="F394" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G394">
         <v>1.5655707775003618</v>
       </c>
       <c r="H394" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J394" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K394" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L394" t="s">
         <v>58</v>
-      </c>
-      <c r="L394" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -11773,22 +11755,22 @@
         <v>2017</v>
       </c>
       <c r="F395" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G395">
         <v>1.5669067656006332</v>
       </c>
       <c r="H395" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J395" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K395" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L395" t="s">
         <v>58</v>
-      </c>
-      <c r="L395" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -11810,22 +11792,22 @@
         <v>2018</v>
       </c>
       <c r="F396" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G396">
         <v>1.5680560012794198</v>
       </c>
       <c r="H396" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J396" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K396" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L396" t="s">
         <v>58</v>
-      </c>
-      <c r="L396" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -11847,22 +11829,22 @@
         <v>2019</v>
       </c>
       <c r="F397" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G397">
         <v>1.56899278989477</v>
       </c>
       <c r="H397" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J397" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K397" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L397" t="s">
         <v>58</v>
-      </c>
-      <c r="L397" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -11884,22 +11866,22 @@
         <v>2020</v>
       </c>
       <c r="F398" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G398">
         <v>1.5830542936008962</v>
       </c>
       <c r="H398" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J398" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K398" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L398" t="s">
         <v>58</v>
-      </c>
-      <c r="L398" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -11921,22 +11903,22 @@
         <v>2021</v>
       </c>
       <c r="F399" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G399">
         <v>1.5781479220274037</v>
       </c>
       <c r="H399" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J399" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K399" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L399" t="s">
         <v>58</v>
-      </c>
-      <c r="L399" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -11958,23 +11940,23 @@
         <v>1990</v>
       </c>
       <c r="F400" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G400">
         <f>G368</f>
         <v>1.6619623743333447</v>
       </c>
       <c r="H400" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J400" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K400" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L400" t="s">
         <v>58</v>
-      </c>
-      <c r="L400" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -11996,23 +11978,23 @@
         <v>1991</v>
       </c>
       <c r="F401" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G401">
         <f t="shared" ref="G401:G431" si="16">G369</f>
         <v>1.6529349561812849</v>
       </c>
       <c r="H401" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J401" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K401" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L401" t="s">
         <v>58</v>
-      </c>
-      <c r="L401" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -12034,23 +12016,23 @@
         <v>1992</v>
       </c>
       <c r="F402" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G402">
         <f t="shared" si="16"/>
         <v>1.6439015880381007</v>
       </c>
       <c r="H402" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J402" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K402" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L402" t="s">
         <v>58</v>
-      </c>
-      <c r="L402" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -12072,23 +12054,23 @@
         <v>1993</v>
       </c>
       <c r="F403" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G403">
         <f t="shared" si="16"/>
         <v>1.6348977095326076</v>
       </c>
       <c r="H403" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J403" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K403" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L403" t="s">
         <v>58</v>
-      </c>
-      <c r="L403" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -12110,23 +12092,23 @@
         <v>1994</v>
       </c>
       <c r="F404" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G404">
         <f t="shared" si="16"/>
         <v>1.6359409990814882</v>
       </c>
       <c r="H404" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J404" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K404" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L404" t="s">
         <v>58</v>
-      </c>
-      <c r="L404" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -12148,23 +12130,23 @@
         <v>1995</v>
       </c>
       <c r="F405" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G405">
         <f t="shared" si="16"/>
         <v>1.627796211649325</v>
       </c>
       <c r="H405" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J405" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K405" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L405" t="s">
         <v>58</v>
-      </c>
-      <c r="L405" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -12186,23 +12168,23 @@
         <v>1996</v>
       </c>
       <c r="F406" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G406">
         <f t="shared" si="16"/>
         <v>1.6201500029414151</v>
       </c>
       <c r="H406" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J406" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K406" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L406" t="s">
         <v>58</v>
-      </c>
-      <c r="L406" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -12224,23 +12206,23 @@
         <v>1997</v>
       </c>
       <c r="F407" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G407">
         <f t="shared" si="16"/>
         <v>1.6129948320503564</v>
       </c>
       <c r="H407" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J407" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K407" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L407" t="s">
         <v>58</v>
-      </c>
-      <c r="L407" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -12262,23 +12244,23 @@
         <v>1998</v>
       </c>
       <c r="F408" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G408">
         <f t="shared" si="16"/>
         <v>1.6062654456809142</v>
       </c>
       <c r="H408" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J408" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K408" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L408" t="s">
         <v>58</v>
-      </c>
-      <c r="L408" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -12300,23 +12282,23 @@
         <v>1999</v>
       </c>
       <c r="F409" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G409">
         <f t="shared" si="16"/>
         <v>1.5998922064513665</v>
       </c>
       <c r="H409" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J409" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K409" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L409" t="s">
         <v>58</v>
-      </c>
-      <c r="L409" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -12338,23 +12320,23 @@
         <v>2000</v>
       </c>
       <c r="F410" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G410">
         <f t="shared" si="16"/>
         <v>1.5938163690116243</v>
       </c>
       <c r="H410" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J410" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K410" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L410" t="s">
         <v>58</v>
-      </c>
-      <c r="L410" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -12376,23 +12358,23 @@
         <v>2001</v>
       </c>
       <c r="F411" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G411">
         <f t="shared" si="16"/>
         <v>1.5906754879369145</v>
       </c>
       <c r="H411" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J411" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K411" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L411" t="s">
         <v>58</v>
-      </c>
-      <c r="L411" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -12414,23 +12396,23 @@
         <v>2002</v>
       </c>
       <c r="F412" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G412">
         <f t="shared" si="16"/>
         <v>1.587189549799211</v>
       </c>
       <c r="H412" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J412" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K412" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L412" t="s">
         <v>58</v>
-      </c>
-      <c r="L412" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -12452,23 +12434,23 @@
         <v>2003</v>
       </c>
       <c r="F413" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G413">
         <f t="shared" si="16"/>
         <v>1.5834524958984122</v>
       </c>
       <c r="H413" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J413" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K413" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L413" t="s">
         <v>58</v>
-      </c>
-      <c r="L413" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -12490,23 +12472,23 @@
         <v>2004</v>
       </c>
       <c r="F414" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G414">
         <f t="shared" si="16"/>
         <v>1.5795519905141138</v>
       </c>
       <c r="H414" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J414" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K414" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L414" t="s">
         <v>58</v>
-      </c>
-      <c r="L414" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -12528,23 +12510,23 @@
         <v>2005</v>
       </c>
       <c r="F415" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G415">
         <f t="shared" si="16"/>
         <v>1.5742273401858171</v>
       </c>
       <c r="H415" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J415" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K415" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L415" t="s">
         <v>58</v>
-      </c>
-      <c r="L415" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -12566,23 +12548,23 @@
         <v>2006</v>
       </c>
       <c r="F416" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G416">
         <f t="shared" si="16"/>
         <v>1.5770757432902991</v>
       </c>
       <c r="H416" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J416" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K416" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L416" t="s">
         <v>58</v>
-      </c>
-      <c r="L416" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -12604,23 +12586,23 @@
         <v>2007</v>
       </c>
       <c r="F417" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G417">
         <f t="shared" si="16"/>
         <v>1.5810502599514888</v>
       </c>
       <c r="H417" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J417" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K417" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L417" t="s">
         <v>58</v>
-      </c>
-      <c r="L417" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -12642,23 +12624,23 @@
         <v>2008</v>
       </c>
       <c r="F418" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G418">
         <f t="shared" si="16"/>
         <v>1.5868573677903355</v>
       </c>
       <c r="H418" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J418" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K418" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L418" t="s">
         <v>58</v>
-      </c>
-      <c r="L418" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -12680,23 +12662,23 @@
         <v>2009</v>
       </c>
       <c r="F419" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G419">
         <f t="shared" si="16"/>
         <v>1.5941421065031705</v>
       </c>
       <c r="H419" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J419" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K419" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L419" t="s">
         <v>58</v>
-      </c>
-      <c r="L419" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -12718,23 +12700,23 @@
         <v>2010</v>
       </c>
       <c r="F420" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G420">
         <f t="shared" si="16"/>
         <v>1.6027499464678339</v>
       </c>
       <c r="H420" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J420" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K420" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L420" t="s">
         <v>58</v>
-      </c>
-      <c r="L420" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -12756,23 +12738,23 @@
         <v>2011</v>
       </c>
       <c r="F421" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G421">
         <f t="shared" si="16"/>
         <v>1.5952803755147054</v>
       </c>
       <c r="H421" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J421" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K421" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L421" t="s">
         <v>58</v>
-      </c>
-      <c r="L421" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -12794,23 +12776,23 @@
         <v>2012</v>
       </c>
       <c r="F422" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G422">
         <f t="shared" si="16"/>
         <v>1.5881061022973417</v>
       </c>
       <c r="H422" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J422" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K422" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L422" t="s">
         <v>58</v>
-      </c>
-      <c r="L422" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -12832,23 +12814,23 @@
         <v>2013</v>
       </c>
       <c r="F423" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G423">
         <f t="shared" si="16"/>
         <v>1.580437033556165</v>
       </c>
       <c r="H423" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J423" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K423" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L423" t="s">
         <v>58</v>
-      </c>
-      <c r="L423" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -12870,23 +12852,23 @@
         <v>2014</v>
       </c>
       <c r="F424" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G424">
         <f t="shared" si="16"/>
         <v>1.5720933219641362</v>
       </c>
       <c r="H424" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J424" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K424" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L424" t="s">
         <v>58</v>
-      </c>
-      <c r="L424" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -12908,23 +12890,23 @@
         <v>2015</v>
       </c>
       <c r="F425" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G425">
         <f t="shared" si="16"/>
         <v>1.5638595650126308</v>
       </c>
       <c r="H425" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J425" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K425" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L425" t="s">
         <v>58</v>
-      </c>
-      <c r="L425" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -12946,23 +12928,23 @@
         <v>2016</v>
       </c>
       <c r="F426" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G426">
         <f t="shared" si="16"/>
         <v>1.5655707775003618</v>
       </c>
       <c r="H426" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J426" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K426" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L426" t="s">
         <v>58</v>
-      </c>
-      <c r="L426" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -12984,23 +12966,23 @@
         <v>2017</v>
       </c>
       <c r="F427" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G427">
         <f t="shared" si="16"/>
         <v>1.5669067656006332</v>
       </c>
       <c r="H427" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J427" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K427" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L427" t="s">
         <v>58</v>
-      </c>
-      <c r="L427" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -13022,23 +13004,23 @@
         <v>2018</v>
       </c>
       <c r="F428" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G428">
         <f t="shared" si="16"/>
         <v>1.5680560012794198</v>
       </c>
       <c r="H428" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J428" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K428" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L428" t="s">
         <v>58</v>
-      </c>
-      <c r="L428" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -13060,23 +13042,23 @@
         <v>2019</v>
       </c>
       <c r="F429" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G429">
         <f t="shared" si="16"/>
         <v>1.56899278989477</v>
       </c>
       <c r="H429" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J429" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K429" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L429" t="s">
         <v>58</v>
-      </c>
-      <c r="L429" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -13098,23 +13080,23 @@
         <v>2020</v>
       </c>
       <c r="F430" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G430">
         <f t="shared" si="16"/>
         <v>1.5830542936008962</v>
       </c>
       <c r="H430" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J430" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K430" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L430" t="s">
         <v>58</v>
-      </c>
-      <c r="L430" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -13136,63 +13118,66 @@
         <v>2021</v>
       </c>
       <c r="F431" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G431">
         <f t="shared" si="16"/>
         <v>1.5781479220274037</v>
       </c>
       <c r="H431" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J431" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K431" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L431" t="s">
         <v>58</v>
-      </c>
-      <c r="L431" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:L847" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J14:L14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" xr:uid="{D11E7F0F-E127-5643-8C05-AF28547E6E27}"/>
-    <hyperlink ref="K15" r:id="rId2" xr:uid="{AB382EBD-FD85-A94C-A2D5-AE3D74C6342F}"/>
-    <hyperlink ref="K368" r:id="rId3" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
-    <hyperlink ref="K369:K431" r:id="rId4" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
-    <hyperlink ref="K63" r:id="rId5" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
-    <hyperlink ref="K48:K62" r:id="rId6" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
-    <hyperlink ref="K64:K79" r:id="rId7" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
-    <hyperlink ref="K82:K111" r:id="rId8" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
-    <hyperlink ref="K343" r:id="rId9" xr:uid="{0C0E526D-6A8C-134F-BE35-06B4ADC7AC73}"/>
-    <hyperlink ref="K342" r:id="rId10" xr:uid="{96976665-B5EF-6444-98A0-CACD0262B04B}"/>
-    <hyperlink ref="K344" r:id="rId11" xr:uid="{41BD0FA5-814D-5542-8F66-451E973655B9}"/>
-    <hyperlink ref="K345" r:id="rId12" xr:uid="{1C18577E-0F92-D94B-808A-1D479A9A9D7D}"/>
-    <hyperlink ref="K346" r:id="rId13" xr:uid="{7CD71935-F6A5-A64A-9CE5-DF5388C574DE}"/>
-    <hyperlink ref="K347" r:id="rId14" xr:uid="{5DEB018D-4D3C-F143-9ECD-19220F9F0692}"/>
-    <hyperlink ref="K348" r:id="rId15" xr:uid="{D9901D27-9FE0-CC42-BA80-C947C576680F}"/>
-    <hyperlink ref="K349" r:id="rId16" xr:uid="{33D54C85-8967-3B48-AA0A-5244FC7F8DCC}"/>
-    <hyperlink ref="K350" r:id="rId17" xr:uid="{11FD886D-ED70-994E-96D4-D2A1EFC93DAC}"/>
-    <hyperlink ref="K351" r:id="rId18" xr:uid="{7CF82867-33F1-914B-A996-99CA4733A004}"/>
-    <hyperlink ref="K352" r:id="rId19" xr:uid="{D5FE05BF-3893-FD41-90C3-986FA0F12FAF}"/>
-    <hyperlink ref="K353" r:id="rId20" xr:uid="{EAE16EF2-A1FE-8442-8EC3-DA723AC0E67A}"/>
-    <hyperlink ref="K354" r:id="rId21" xr:uid="{33055A98-5811-524B-9EC1-3A0283BD5907}"/>
-    <hyperlink ref="K355" r:id="rId22" xr:uid="{6863CAC8-19F3-0E4C-99C8-E3A69216A787}"/>
-    <hyperlink ref="K356" r:id="rId23" xr:uid="{54240DC6-F9AF-AA4B-BD21-4F9DDED0EEA4}"/>
-    <hyperlink ref="K357" r:id="rId24" xr:uid="{07BC9CE7-BC7C-F24A-963E-3F5619A2C03A}"/>
-    <hyperlink ref="K358" r:id="rId25" xr:uid="{880A85ED-29EB-5C4E-9B92-9E277216596D}"/>
-    <hyperlink ref="K359" r:id="rId26" xr:uid="{2B50CA61-0A45-6741-865B-CECA485A0FA0}"/>
-    <hyperlink ref="K360" r:id="rId27" xr:uid="{2480CF30-C447-DE4A-B5E8-D8A064AE758B}"/>
-    <hyperlink ref="K361" r:id="rId28" xr:uid="{6FBEA4CE-8355-7E4B-A567-2CD101443769}"/>
-    <hyperlink ref="K362" r:id="rId29" xr:uid="{ED91D465-08DE-9643-AEF3-174C8D5F4BB6}"/>
-    <hyperlink ref="K363" r:id="rId30" xr:uid="{3A015178-076F-2843-91C0-0CA786961C75}"/>
-    <hyperlink ref="K364" r:id="rId31" xr:uid="{AC639036-E01F-D948-AD0A-06DB7731CEAB}"/>
-    <hyperlink ref="K365" r:id="rId32" xr:uid="{45309FF3-F771-A54A-8B87-C87D8548948B}"/>
-    <hyperlink ref="K366" r:id="rId33" xr:uid="{33D21E8B-75FF-1A4E-9369-E45FF2740474}"/>
-    <hyperlink ref="K367" r:id="rId34" xr:uid="{5044226B-A80E-FF44-B665-3BEEC93B1F28}"/>
+    <hyperlink ref="K368" r:id="rId1" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
+    <hyperlink ref="K369:K431" r:id="rId2" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
+    <hyperlink ref="K63" r:id="rId3" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
+    <hyperlink ref="K48:K62" r:id="rId4" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
+    <hyperlink ref="K64:K79" r:id="rId5" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
+    <hyperlink ref="K82:K111" r:id="rId6" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
+    <hyperlink ref="K343" r:id="rId7" xr:uid="{0C0E526D-6A8C-134F-BE35-06B4ADC7AC73}"/>
+    <hyperlink ref="K342" r:id="rId8" xr:uid="{96976665-B5EF-6444-98A0-CACD0262B04B}"/>
+    <hyperlink ref="K344" r:id="rId9" xr:uid="{41BD0FA5-814D-5542-8F66-451E973655B9}"/>
+    <hyperlink ref="K345" r:id="rId10" xr:uid="{1C18577E-0F92-D94B-808A-1D479A9A9D7D}"/>
+    <hyperlink ref="K346" r:id="rId11" xr:uid="{7CD71935-F6A5-A64A-9CE5-DF5388C574DE}"/>
+    <hyperlink ref="K347" r:id="rId12" xr:uid="{5DEB018D-4D3C-F143-9ECD-19220F9F0692}"/>
+    <hyperlink ref="K348" r:id="rId13" xr:uid="{D9901D27-9FE0-CC42-BA80-C947C576680F}"/>
+    <hyperlink ref="K349" r:id="rId14" xr:uid="{33D54C85-8967-3B48-AA0A-5244FC7F8DCC}"/>
+    <hyperlink ref="K350" r:id="rId15" xr:uid="{11FD886D-ED70-994E-96D4-D2A1EFC93DAC}"/>
+    <hyperlink ref="K351" r:id="rId16" xr:uid="{7CF82867-33F1-914B-A996-99CA4733A004}"/>
+    <hyperlink ref="K352" r:id="rId17" xr:uid="{D5FE05BF-3893-FD41-90C3-986FA0F12FAF}"/>
+    <hyperlink ref="K353" r:id="rId18" xr:uid="{EAE16EF2-A1FE-8442-8EC3-DA723AC0E67A}"/>
+    <hyperlink ref="K354" r:id="rId19" xr:uid="{33055A98-5811-524B-9EC1-3A0283BD5907}"/>
+    <hyperlink ref="K355" r:id="rId20" xr:uid="{6863CAC8-19F3-0E4C-99C8-E3A69216A787}"/>
+    <hyperlink ref="K356" r:id="rId21" xr:uid="{54240DC6-F9AF-AA4B-BD21-4F9DDED0EEA4}"/>
+    <hyperlink ref="K357" r:id="rId22" xr:uid="{07BC9CE7-BC7C-F24A-963E-3F5619A2C03A}"/>
+    <hyperlink ref="K358" r:id="rId23" xr:uid="{880A85ED-29EB-5C4E-9B92-9E277216596D}"/>
+    <hyperlink ref="K359" r:id="rId24" xr:uid="{2B50CA61-0A45-6741-865B-CECA485A0FA0}"/>
+    <hyperlink ref="K360" r:id="rId25" xr:uid="{2480CF30-C447-DE4A-B5E8-D8A064AE758B}"/>
+    <hyperlink ref="K361" r:id="rId26" xr:uid="{6FBEA4CE-8355-7E4B-A567-2CD101443769}"/>
+    <hyperlink ref="K362" r:id="rId27" xr:uid="{ED91D465-08DE-9643-AEF3-174C8D5F4BB6}"/>
+    <hyperlink ref="K363" r:id="rId28" xr:uid="{3A015178-076F-2843-91C0-0CA786961C75}"/>
+    <hyperlink ref="K364" r:id="rId29" xr:uid="{AC639036-E01F-D948-AD0A-06DB7731CEAB}"/>
+    <hyperlink ref="K365" r:id="rId30" xr:uid="{45309FF3-F771-A54A-8B87-C87D8548948B}"/>
+    <hyperlink ref="K366" r:id="rId31" xr:uid="{33D21E8B-75FF-1A4E-9369-E45FF2740474}"/>
+    <hyperlink ref="K367" r:id="rId32" xr:uid="{5044226B-A80E-FF44-B665-3BEEC93B1F28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
